--- a/DRL_UTE/Doc/FileMau/HocPhi.xlsx
+++ b/DRL_UTE/Doc/FileMau/HocPhi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MÔN HỌC\4_Kì 121\Đồ Án Tốt Nghiệp\Code\DRL_UTE\DRL_UTE\Doc\FileMau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FBEA19-2D7D-4A80-8F01-22AC8A8842E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FEFCAF-7ABC-4052-A175-F97A0B4F313C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4212" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{E368D24D-09EA-4FC1-9DEB-45ACD69ABB25}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E368D24D-09EA-4FC1-9DEB-45ACD69ABB25}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -418,7 +418,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -443,7 +443,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1213</v>
+        <v>222</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
